--- a/Projects/CCPHL/Data/Template.xlsx
+++ b/Projects/CCPHL/Data/Template.xlsx
@@ -395,24 +395,24 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.3765182186235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="29.8016194331984"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.96356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="6.64777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9109311740891"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1023" min="1015" style="4" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1023" min="1015" style="4" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,6 +830,7 @@
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G14" s="0"/>
       <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
@@ -862,6 +863,7 @@
       <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G15" s="0"/>
       <c r="H15" s="4" t="s">
         <v>17</v>
       </c>

--- a/Projects/CCPHL/Data/Template.xlsx
+++ b/Projects/CCPHL/Data/Template.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">CPURITY_OWN_MANF_COOLER_SCENES_WHOLE_STORE</t>
   </si>
   <si>
-    <t xml:space="preserve">Two-door Cooler, One-door Cooler, CCV</t>
+    <t xml:space="preserve">One-door Cooler, Two-door Cooler, Open-curtain Chiller</t>
   </si>
   <si>
     <t xml:space="preserve">store</t>
@@ -236,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,6 +291,10 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -395,21 +399,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="43.1052631578947"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="1015" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
@@ -711,8 +715,8 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
@@ -722,7 +726,7 @@
       <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -742,16 +746,16 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -769,8 +773,8 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
@@ -780,7 +784,7 @@
       <c r="J12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -800,16 +804,16 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -840,7 +844,7 @@
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -870,8 +874,8 @@
       <c r="I15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -904,7 +908,7 @@
       <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -936,7 +940,7 @@
       <c r="I17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCPHL/Data/Template.xlsx
+++ b/Projects/CCPHL/Data/Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="38">
   <si>
     <t xml:space="preserve">kpi_group</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">filter_param_value_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_zero_results</t>
   </si>
   <si>
     <t xml:space="preserve">SHELF_PURITY</t>
@@ -202,12 +205,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -261,7 +271,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,51 +283,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,25 +406,26 @@
   </sheetPr>
   <dimension ref="1:17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="43.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="43.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="1" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1014" min="13" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1023" min="1015" style="4" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
@@ -426,521 +437,571 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>18</v>
+      <c r="L4" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="13"/>
+      <c r="L9" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
+      <c r="E10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="K10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>15</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>17</v>
+      <c r="H11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
+      <c r="H12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="K12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
+      <c r="H13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="0"/>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="0"/>
-      <c r="H15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="K16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="15"/>
       <c r="K17" s="19"/>
+      <c r="L17" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
